--- a/Doc/ERD설계/ERD_취합_240320.xlsx
+++ b/Doc/ERD설계/ERD_취합_240320.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hubul\Desktop\AIPT_brian\Doc\ERD설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7192115F-2B98-4E8B-A0AF-714BA9E5BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C864B549-9BDE-4099-BF3A-62AA3C3AC694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5928" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
-    <sheet name="DB design" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Merge" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="DB design" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
   <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1128,6 +1129,89 @@
 user.phone
 user.height
 user.weight</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>challenge.challenge_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">challenge.master_user_code (user.user_code)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">challenge.regist_date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>challenge.title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+challenge.content
+challenge.total_point
+challenge.recruit_start
+challenge.recruit_end
+challenge.challenge_start_date
+challenge.challenge_end_date
+challenge.proceed
+challenge.total_participants
+challenge.total_success_member
+challenge.min_grade</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1350,7 +1434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1360,9 +1444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,16 +1461,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,8 +1483,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,30 +1519,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1856,11 +1934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADDE137-4969-4A1D-996F-826E6C607101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571E57C3-18EF-425D-A821-76DBD0D922AF}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1871,174 +1949,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="148.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="82.5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="115.5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="66">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="66">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="247.5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="112.2" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="82.5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="20" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2047,6 +2125,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADDE137-4969-4A1D-996F-826E6C607101}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="32.94921875" customWidth="1"/>
+    <col min="5" max="5" width="44.44921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="148.5">
+      <c r="A2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="82.5">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="49.5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="115.5">
+      <c r="A5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="66">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="66">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="264">
+      <c r="A8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="112.2" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="82.5">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
@@ -2095,10 +2364,10 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2115,18 +2384,18 @@
       <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="6"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
@@ -2145,7 +2414,7 @@
       <c r="K3" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="P3" t="s">
@@ -2153,7 +2422,7 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="6"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
@@ -2167,7 +2436,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="6"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
@@ -2181,7 +2450,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2195,12 +2464,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
@@ -2216,7 +2485,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2228,12 +2497,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="6"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -2247,7 +2516,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
@@ -2259,12 +2528,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2547,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
@@ -2292,21 +2561,21 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="6"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2320,7 +2589,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="6"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
@@ -2334,7 +2603,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="6"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2350,7 +2619,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2635,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2405,7 +2674,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2425,7 +2694,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
@@ -2439,7 +2708,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2453,7 +2722,7 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2736,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2485,7 +2754,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="5" t="s">
         <v>18</v>
       </c>
@@ -2499,7 +2768,7 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2782,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2529,7 +2798,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2812,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2557,340 +2826,340 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2906,7 +3175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AE8C66-C1F9-43A9-B6AC-AA37B7C2A1E0}">
   <dimension ref="A1"/>
   <sheetViews>
